--- a/Fujiya Instruments/Junk Guitar/Junk Guitar Free/xlsx/Junk Guitar Free.xlsx
+++ b/Fujiya Instruments/Junk Guitar/Junk Guitar Free/xlsx/Junk Guitar Free.xlsx
@@ -35,6 +35,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -57,6 +72,21 @@
   </authors>
   <commentList>
     <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,6 +115,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -110,6 +155,21 @@
       <text>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>Since 0.7
+Enter valid filename. The converter will use as output filename and VST Expression Map name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color rgb="FF000000"/>
@@ -126,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="198">
   <si>
     <t>Name</t>
   </si>
@@ -713,13 +773,28 @@
   <si>
     <t>Brush</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>Expression Map Name</t>
+  </si>
+  <si>
+    <t>Junk Guitar Free (Mono)</t>
+  </si>
+  <si>
+    <t>Junk Guitar Free (Poly)</t>
+  </si>
+  <si>
+    <t>Junk Guitar Free (Chord)</t>
+  </si>
+  <si>
+    <t>Junk Guitar Free (Stop)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -764,8 +839,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -818,6 +900,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFEBF1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -877,7 +965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -937,6 +1025,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1027,13 +1121,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1332,7 +1426,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1340,12 +1434,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M129"/>
+  <dimension ref="A1:M131"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -1362,118 +1456,65 @@
     <col min="1028" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="12">
-        <v>120</v>
-      </c>
-      <c r="J3" s="12">
-        <v>2</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -1481,36 +1522,24 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="12">
-        <v>120</v>
-      </c>
-      <c r="J4" s="12">
-        <v>2</v>
-      </c>
-      <c r="K4" s="12">
-        <v>127</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -1525,25 +1554,29 @@
         <v>120</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5" s="12">
         <v>120</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="12">
+        <v>2</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0</v>
+      </c>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -1558,25 +1591,29 @@
         <v>120</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" s="12">
         <v>120</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="J6" s="12">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>127</v>
+      </c>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -1591,7 +1628,7 @@
         <v>120</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="12">
         <v>120</v>
@@ -1603,13 +1640,13 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -1624,7 +1661,7 @@
         <v>120</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I8" s="12">
         <v>120</v>
@@ -1636,13 +1673,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -1657,7 +1694,7 @@
         <v>120</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I9" s="12">
         <v>120</v>
@@ -1669,13 +1706,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -1690,7 +1727,7 @@
         <v>120</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I10" s="12">
         <v>120</v>
@@ -1702,13 +1739,13 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -1723,7 +1760,7 @@
         <v>120</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" s="12">
         <v>120</v>
@@ -1735,13 +1772,13 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -1756,7 +1793,7 @@
         <v>120</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="12">
         <v>120</v>
@@ -1768,13 +1805,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
@@ -1789,7 +1826,7 @@
         <v>120</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I13" s="12">
         <v>120</v>
@@ -1801,13 +1838,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
@@ -1822,7 +1859,7 @@
         <v>120</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="12">
         <v>120</v>
@@ -1834,13 +1871,13 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -1855,7 +1892,7 @@
         <v>120</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I15" s="12">
         <v>120</v>
@@ -1867,13 +1904,13 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>12</v>
@@ -1888,7 +1925,7 @@
         <v>120</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="12">
         <v>120</v>
@@ -1900,13 +1937,13 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" s="12">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>12</v>
@@ -1921,7 +1958,7 @@
         <v>120</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="12">
         <v>120</v>
@@ -1933,13 +1970,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>12</v>
@@ -1954,7 +1991,7 @@
         <v>120</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I18" s="12">
         <v>120</v>
@@ -1966,13 +2003,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="12">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>12</v>
@@ -1987,7 +2024,7 @@
         <v>120</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I19" s="12">
         <v>120</v>
@@ -1999,13 +2036,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="12">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>12</v>
@@ -2020,7 +2057,7 @@
         <v>120</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I20" s="12">
         <v>120</v>
@@ -2031,30 +2068,66 @@
       <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="1"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
+      <c r="A21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="12">
+        <v>120</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" s="12">
+        <v>120</v>
+      </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="1"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="A22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="12">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="12">
+        <v>120</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="12">
+        <v>120</v>
+      </c>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
@@ -3665,26 +3738,59 @@
       <c r="L129" s="12"/>
       <c r="M129" s="12"/>
     </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="1"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B129">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B131">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="J2:K129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="J4:K131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="I2:I129 G2:G129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="I4:I131 G4:G131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="L2:L129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="L4:L131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="M2:M129">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="M4:M131">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -3703,7 +3809,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D129</xm:sqref>
+          <xm:sqref>D4:D131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -3712,7 +3818,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E129</xm:sqref>
+          <xm:sqref>E4:E131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -3721,7 +3827,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H2:H129 F2:F129</xm:sqref>
+          <xm:sqref>H4:H131 F4:F131</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3731,10 +3837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O131"/>
+  <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3755,126 +3861,71 @@
     <col min="1030" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:15" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="12">
-        <v>120</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -3882,42 +3933,26 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="12">
-        <v>120</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="12">
-        <v>120</v>
-      </c>
-      <c r="L4" s="12">
-        <v>2</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -3940,27 +3975,21 @@
       <c r="J5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="12">
-        <v>120</v>
-      </c>
-      <c r="L5" s="12">
-        <v>2</v>
-      </c>
-      <c r="M5" s="12">
-        <v>127</v>
-      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -3975,7 +4004,7 @@
         <v>120</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="12">
         <v>120</v>
@@ -3997,13 +4026,13 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -4018,7 +4047,7 @@
         <v>120</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="12">
         <v>120</v>
@@ -4040,13 +4069,13 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -4061,27 +4090,35 @@
         <v>120</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="12">
         <v>120</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
+      <c r="J8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="12">
+        <v>120</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0</v>
+      </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -4096,27 +4133,35 @@
         <v>120</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="12">
         <v>120</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
+      <c r="J9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="12">
+        <v>120</v>
+      </c>
+      <c r="L9" s="12">
+        <v>2</v>
+      </c>
+      <c r="M9" s="12">
+        <v>127</v>
+      </c>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -4131,7 +4176,7 @@
         <v>120</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="12">
         <v>120</v>
@@ -4145,13 +4190,13 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -4166,7 +4211,7 @@
         <v>120</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="12">
         <v>120</v>
@@ -4180,13 +4225,13 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -4201,7 +4246,7 @@
         <v>120</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I12" s="12">
         <v>120</v>
@@ -4215,13 +4260,13 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
@@ -4236,7 +4281,7 @@
         <v>120</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I13" s="12">
         <v>120</v>
@@ -4250,13 +4295,13 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
@@ -4271,7 +4316,7 @@
         <v>120</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I14" s="12">
         <v>120</v>
@@ -4285,13 +4330,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -4306,7 +4351,7 @@
         <v>120</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I15" s="12">
         <v>120</v>
@@ -4320,13 +4365,13 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>12</v>
@@ -4341,7 +4386,7 @@
         <v>120</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="12">
         <v>120</v>
@@ -4354,15 +4399,33 @@
       <c r="O16" s="12"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="A17" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="12">
+        <v>120</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="12">
+        <v>120</v>
+      </c>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
@@ -4371,15 +4434,33 @@
       <c r="O17" s="12"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
+      <c r="A18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" s="12">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="12">
+        <v>120</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="12">
+        <v>120</v>
+      </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
@@ -6308,26 +6389,63 @@
       <c r="N131" s="12"/>
       <c r="O131" s="12"/>
     </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="1"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="12"/>
+      <c r="N132" s="12"/>
+      <c r="O132" s="12"/>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="1"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="12"/>
+      <c r="N133" s="12"/>
+      <c r="O133" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="O2:O131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="O4:O133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="N2:N131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="N4:N133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="K2:K131 I2:I131 G2:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="K4:K133 I4:I133 G4:G133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="L2:M131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="L4:M133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B133">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -6345,7 +6463,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>J2:J131 H2:H131 F2:F131</xm:sqref>
+          <xm:sqref>J4:J133 H4:H133 F4:F133</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6354,7 +6472,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E131</xm:sqref>
+          <xm:sqref>E4:E133</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -6363,7 +6481,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D131</xm:sqref>
+          <xm:sqref>D4:D133</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6373,10 +6491,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6395,114 +6513,65 @@
     <col min="1028" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="12">
-        <v>120</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="12">
-        <v>120</v>
-      </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -6510,18 +6579,10 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="12">
-        <v>120</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="12">
-        <v>120</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
@@ -6529,13 +6590,13 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>192</v>
+      <c r="C5" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -6550,7 +6611,7 @@
         <v>120</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" s="12">
         <v>120</v>
@@ -6562,13 +6623,13 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -6583,7 +6644,7 @@
         <v>120</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6" s="12">
         <v>120</v>
@@ -6595,13 +6656,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>189</v>
+      <c r="C7" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -6616,7 +6677,7 @@
         <v>120</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I7" s="12">
         <v>120</v>
@@ -6627,30 +6688,66 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="A8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="12">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="12">
+        <v>120</v>
+      </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="A9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="12">
+        <v>120</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="12">
+        <v>120</v>
+      </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
@@ -8441,26 +8538,59 @@
       <c r="L128" s="12"/>
       <c r="M128" s="12"/>
     </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="1"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+      <c r="G129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="I129" s="12"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="12"/>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="1"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+      <c r="G130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="I130" s="12"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="M2:M128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="M4:M130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="L2:L128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="L4:L130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G128 I2:I128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G130 I4:I130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="J2:K128">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="J4:K130">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B128">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B130">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8478,7 +8608,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F128 H2:H128</xm:sqref>
+          <xm:sqref>F4:F130 H4:H130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8487,7 +8617,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E128</xm:sqref>
+          <xm:sqref>E4:E130</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -8496,7 +8626,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D128</xm:sqref>
+          <xm:sqref>D4:D130</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8506,12 +8636,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
@@ -8526,100 +8656,59 @@
     <col min="1026" max="16384" width="8.875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1">
+      <c r="A1" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="12">
-        <v>1</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="12">
-        <v>31</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>12</v>
@@ -8627,12 +8716,8 @@
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="12">
-        <v>64</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
@@ -8640,13 +8725,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5" s="12">
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>12</v>
@@ -8658,7 +8743,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -8667,13 +8752,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B6" s="12">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>12</v>
@@ -8685,7 +8770,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="12">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -8694,13 +8779,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="12">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>12</v>
@@ -8709,10 +8794,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -8721,13 +8806,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" s="12">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>12</v>
@@ -8736,10 +8821,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G8" s="12">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -8748,13 +8833,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>12</v>
@@ -8766,7 +8851,7 @@
         <v>53</v>
       </c>
       <c r="G9" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -8775,13 +8860,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="12">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>12</v>
@@ -8793,7 +8878,7 @@
         <v>53</v>
       </c>
       <c r="G10" s="12">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -8802,13 +8887,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B11" s="12">
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>12</v>
@@ -8817,10 +8902,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="12">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -8829,13 +8914,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>12</v>
@@ -8844,10 +8929,10 @@
         <v>1</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="12">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -8856,13 +8941,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B13" s="12">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>12</v>
@@ -8874,7 +8959,7 @@
         <v>52</v>
       </c>
       <c r="G13" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -8883,13 +8968,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B14" s="12">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>12</v>
@@ -8901,7 +8986,7 @@
         <v>52</v>
       </c>
       <c r="G14" s="12">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -8910,13 +8995,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B15" s="12">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>12</v>
@@ -8925,10 +9010,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G15" s="12">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -8937,13 +9022,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16" s="12">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>12</v>
@@ -8952,10 +9037,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G16" s="12">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -8964,13 +9049,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B17" s="12">
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>12</v>
@@ -8982,7 +9067,7 @@
         <v>54</v>
       </c>
       <c r="G17" s="12">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -8991,13 +9076,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B18" s="12">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>12</v>
@@ -9009,7 +9094,7 @@
         <v>54</v>
       </c>
       <c r="G18" s="12">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -9017,26 +9102,54 @@
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="1"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="12">
+        <v>96</v>
+      </c>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="A20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="12">
+        <v>127</v>
+      </c>
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -10485,26 +10598,55 @@
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
     </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+      <c r="G132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="I132" s="12"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="12"/>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+      <c r="G133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="I133" s="12"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="12"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="6"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B133">
       <formula1>"0,1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H2:I131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use CC set cell value empty" sqref="H4:I133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G2:G131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use MIDI Note on, set cell value empty." sqref="G4:G133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J2:J131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If don't use Program Change, set cell value empty." sqref="J4:J133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K2:K131">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="0-127" prompt="If cell value is empty, MSB will be set 0._x000a__x000a_By my research, Maybe Cubase will not recognize MSB." sqref="K4:K133">
       <formula1>0</formula1>
       <formula2>127</formula2>
     </dataValidation>
@@ -10522,7 +10664,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D131</xm:sqref>
+          <xm:sqref>D4:D133</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -10531,7 +10673,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E131</xm:sqref>
+          <xm:sqref>E4:E133</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="MIDI Note" prompt="Choose from Drop-down list or imput number directly(0-127)_x000a__x000a_If don’t use MIDI Note, set Cell value empty.">
           <x14:formula1>
@@ -10540,7 +10682,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F131</xm:sqref>
+          <xm:sqref>F4:F133</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
